--- a/ssvc_backend/possible-cwe-with-poc-examples.xlsx
+++ b/ssvc_backend/possible-cwe-with-poc-examples.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ssvc\techimpact\exploit_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkosc\Documents\SSVC Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AB332-20DB-4813-A5D4-0C57FB7043B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16696468-BD37-46C2-A036-0D5B1C27B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBF29CAD-9845-4CA7-B904-11B051B72DD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBF29CAD-9845-4CA7-B904-11B051B72DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="306">
   <si>
     <t>CWE-ID</t>
   </si>
@@ -1643,10 +1644,109 @@
     <t>Prohibited - View</t>
   </si>
   <si>
-    <t>not enough info</t>
-  </si>
-  <si>
     <t>Possible PoC</t>
+  </si>
+  <si>
+    <t>too broad</t>
+  </si>
+  <si>
+    <t>too broad; mapping use discouraged</t>
+  </si>
+  <si>
+    <t>too broad; not enough information</t>
+  </si>
+  <si>
+    <t>not enough information</t>
+  </si>
+  <si>
+    <t>Prohibited - Depreciated</t>
+  </si>
+  <si>
+    <t>Improper Authorization</t>
+  </si>
+  <si>
+    <t>Use of Function with Inconsistent Implementations</t>
+  </si>
+  <si>
+    <t>Undefined Behavior for Input to API</t>
+  </si>
+  <si>
+    <t>Use of Obsolete Function</t>
+  </si>
+  <si>
+    <t>Active Debug Code</t>
+  </si>
+  <si>
+    <t>Use of Hard-coded, Security-relevant Constants</t>
+  </si>
+  <si>
+    <t>Dead Code</t>
+  </si>
+  <si>
+    <t>Return of Stack Variable Address</t>
+  </si>
+  <si>
+    <t>Assignment to Variable without Use</t>
+  </si>
+  <si>
+    <t>Assignment of a Fixed Address to a Pointer</t>
+  </si>
+  <si>
+    <t>Use of Potentially Dangerous Function</t>
+  </si>
+  <si>
+    <t>Incorrect Provision of Specified Functionality</t>
+  </si>
+  <si>
+    <t>Reliance on Undefined, Unspecified, or Implementation-Defined Behavior</t>
+  </si>
+  <si>
+    <t>Excessive Data Query Operations in a Large Data Table</t>
+  </si>
+  <si>
+    <t>Excessive Platform Resource Consumption within a Loop</t>
+  </si>
+  <si>
+    <t>Insufficient Technical Documentation</t>
+  </si>
+  <si>
+    <t>Insufficient Adherence to Expected Conventions</t>
+  </si>
+  <si>
+    <t>Floating Point Comparison with Incorrect Operator</t>
+  </si>
+  <si>
+    <t>Data Access from Outside Expected Data Manager Component</t>
+  </si>
+  <si>
+    <t>Synchronous Access of Remote Resource without Timeout</t>
+  </si>
+  <si>
+    <t>Use of Platform-Dependent Third Party Components</t>
+  </si>
+  <si>
+    <t>Use of Unmaintained Third Party Components</t>
+  </si>
+  <si>
+    <t>Excessive Reliance on Global Variables</t>
+  </si>
+  <si>
+    <t>Incomplete Documentation of Program Execution</t>
+  </si>
+  <si>
+    <t>Insufficient Documentation of Error Handling Techniques</t>
+  </si>
+  <si>
+    <t>Excessive Use of Unconditional Branching</t>
+  </si>
+  <si>
+    <t>Excessive Attack Surface</t>
+  </si>
+  <si>
+    <t>Improper Use of Validation Framework</t>
+  </si>
+  <si>
+    <t>quality weaknesses with indirect security impacts</t>
   </si>
 </sst>
 </file>
@@ -1727,45 +1827,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2096,46 +2240,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.21875" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="107" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2143,39 +2288,43 @@
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2183,23 +2332,23 @@
       <c r="A4">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2207,54 +2356,60 @@
       <c r="A5">
         <v>73</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="C5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>74</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>77</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2262,23 +2417,23 @@
       <c r="A8">
         <v>78</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2286,23 +2441,23 @@
       <c r="A9">
         <v>79</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2310,23 +2465,23 @@
       <c r="A10">
         <v>88</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2334,23 +2489,23 @@
       <c r="A11">
         <v>89</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2358,23 +2513,23 @@
       <c r="A12">
         <v>91</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2382,307 +2537,371 @@
       <c r="A13">
         <v>94</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>115</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="C14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>116</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>119</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>120</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>122</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="C18" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>125</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>129</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>131</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>134</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>178</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="C23" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>190</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>191</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>193</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>194</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="4"/>
+      <c r="C27" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>201</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="4"/>
+      <c r="C29" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>203</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>209</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="8" t="s">
+      <c r="C31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2690,132 +2909,154 @@
       <c r="A32">
         <v>212</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>252</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="C33" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>257</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="C34" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>264</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="4"/>
+      <c r="C35" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>269</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="C36" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>273</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="C37" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>275</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="4"/>
+      <c r="C38" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>276</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="8" t="s">
+      <c r="C39" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2823,101 +3064,117 @@
       <c r="A40">
         <v>280</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="4"/>
+      <c r="C40" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>281</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="C41" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>284</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="4"/>
+      <c r="C42" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>287</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="C43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>290</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="C44" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>294</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="8" t="s">
+      <c r="C45" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2925,70 +3182,80 @@
       <c r="A46">
         <v>295</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="C46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>305</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="4"/>
+      <c r="C47" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>306</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="C48" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>307</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="8" t="s">
+      <c r="C49" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2996,39 +3263,43 @@
       <c r="A50">
         <v>311</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="C50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>312</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="8" t="s">
+      <c r="C51" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3036,23 +3307,23 @@
       <c r="A52">
         <v>319</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="8" t="s">
+      <c r="C52" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3060,70 +3331,80 @@
       <c r="A53">
         <v>321</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E53" s="4"/>
+      <c r="C53" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>326</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="C54" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>327</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="C55" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>330</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="8" t="s">
+      <c r="C56" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3131,23 +3412,23 @@
       <c r="A57">
         <v>331</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="8" t="s">
+      <c r="C57" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3155,118 +3436,140 @@
       <c r="A58">
         <v>335</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="C58" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>337</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="4"/>
+      <c r="C59" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>338</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="C60" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>345</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="C61" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>346</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="C62" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>347</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="C63" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>352</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
+      <c r="C64" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3274,229 +3577,277 @@
       <c r="A65">
         <v>354</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="C65" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>362</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="C66" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>367</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="C67" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>369</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="C68" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>384</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="C69" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>388</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="4"/>
+      <c r="C70" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>400</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="C71" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>401</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="C72" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>404</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="C73" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>405</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" s="4"/>
+      <c r="C74" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>407</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="C75" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>415</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="C76" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>416</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="C77" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>425</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="8" t="s">
+      <c r="C78" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3504,23 +3855,23 @@
       <c r="A79">
         <v>426</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="8" t="s">
+      <c r="C79" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3528,23 +3879,23 @@
       <c r="A80">
         <v>427</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="8" t="s">
+      <c r="C80" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3552,23 +3903,23 @@
       <c r="A81">
         <v>428</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="8" t="s">
+      <c r="C81" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3576,23 +3927,23 @@
       <c r="A82">
         <v>434</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="8" t="s">
+      <c r="C82" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3600,54 +3951,60 @@
       <c r="A83">
         <v>436</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="C83" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>441</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="4"/>
+      <c r="C84" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>444</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="8" t="s">
+      <c r="C85" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3655,118 +4012,140 @@
       <c r="A86">
         <v>451</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="4"/>
+      <c r="C86" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>459</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="C87" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>470</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
+      <c r="C88" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>476</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="C89" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>494</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="C90" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>502</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="C91" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>521</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="8" t="s">
+      <c r="C92" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3774,23 +4153,23 @@
       <c r="A93">
         <v>522</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="8" t="s">
+      <c r="C93" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3798,23 +4177,23 @@
       <c r="A94">
         <v>532</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="8" t="s">
+      <c r="C94" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3822,117 +4201,137 @@
       <c r="A95">
         <v>552</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="C95" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>565</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
+      <c r="C96" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>592</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="4"/>
+      <c r="C97" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>601</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+      <c r="C98" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>602</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E99" s="4"/>
+      <c r="C99" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>610</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="C100" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>611</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="8" t="s">
+      <c r="C101" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3940,55 +4339,63 @@
       <c r="A102">
         <v>613</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
+      <c r="C102" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>617</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="C103" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>639</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="8" t="s">
+      <c r="C104" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3996,388 +4403,474 @@
       <c r="A105">
         <v>640</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="C105" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>662</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="C106" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>665</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="C107" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>667</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="C108" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>668</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
+      <c r="C109" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>669</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
+      <c r="C110" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>670</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="C111" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>672</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="C112" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>674</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
+      <c r="C113" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>681</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="C114" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>682</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="C115" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>697</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="C116" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>703</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="4"/>
+      <c r="C117" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>704</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="C118" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>706</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="C119" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>732</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="C120" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>749</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E121" s="4"/>
+      <c r="C121" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>754</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C122" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
+      <c r="C122" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>755</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
+      <c r="C123" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>759</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="4"/>
+      <c r="C124" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>763</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="C125" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>770</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="C126" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>772</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="C127" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>776</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="8" t="s">
+      <c r="C128" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="H128" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4385,54 +4878,60 @@
       <c r="A129">
         <v>787</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="C129" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>789</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="4"/>
+      <c r="C130" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>798</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="8" t="s">
+      <c r="C131" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="11"/>
+      <c r="F131" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H131" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4440,214 +4939,260 @@
       <c r="A132">
         <v>823</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="4"/>
+      <c r="C132" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>824</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="C133" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>829</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="C134" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>834</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="C135" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>835</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="C136" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>838</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="C137" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>843</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="C138" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>862</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="C139" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>863</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="C140" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>908</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C141" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="C141" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>909</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
+      <c r="C142" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>913</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
+      <c r="C143" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>916</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="8" t="s">
+      <c r="C144" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4655,39 +5200,43 @@
       <c r="A145">
         <v>917</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
+      <c r="C145" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>918</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4" t="s">
+      <c r="C146" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E146" s="11"/>
+      <c r="F146" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H146" s="12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4695,108 +5244,125 @@
       <c r="A147">
         <v>920</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="C147" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>922</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C148" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="C148" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>924</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="C149" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F149" s="10"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1021</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="C150" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1188</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="8" t="s">
+      <c r="C151" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G151" s="15" t="s">
         <v>187</v>
       </c>
+      <c r="H151" s="11"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1236</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="8" t="s">
+      <c r="C152" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4804,39 +5370,43 @@
       <c r="A153">
         <v>1284</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C153" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="C153" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1321</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="8" t="s">
+      <c r="C154" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H154" s="6" t="s">
+      <c r="H154" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4844,23 +5414,23 @@
       <c r="A155">
         <v>1333</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="8" t="s">
+      <c r="C155" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H155" s="6" t="s">
+      <c r="H155" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4868,46 +5438,50 @@
       <c r="A156" t="s">
         <v>249</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" s="4"/>
+      <c r="C156" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>250</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C157" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E157" s="4"/>
+      <c r="C157" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C158" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D158" t="s">
-        <v>175</v>
-      </c>
-      <c r="E158" s="13" t="s">
+      <c r="C158" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E158" s="21" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4915,16 +5489,16 @@
       <c r="A159">
         <v>19</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C159" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D159" t="s">
-        <v>175</v>
-      </c>
-      <c r="E159" s="13" t="s">
+      <c r="C159" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E159" s="21" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4932,16 +5506,16 @@
       <c r="A160">
         <v>21</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C160" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D160" t="s">
-        <v>175</v>
-      </c>
-      <c r="E160" s="13" t="s">
+      <c r="C160" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160" s="21" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4949,185 +5523,664 @@
       <c r="A161">
         <v>189</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D161" t="s">
-        <v>175</v>
-      </c>
-      <c r="E161" s="14" t="s">
+      <c r="C161" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E161" s="22" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>310</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D162" t="s">
-        <v>175</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>257</v>
+        <v>285</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>355</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D163" t="s">
-        <v>175</v>
-      </c>
-      <c r="E163" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>391</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D164" t="s">
-        <v>175</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>269</v>
+        <v>355</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>399</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D165" t="s">
-        <v>175</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>257</v>
+        <v>391</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>473</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D166" t="s">
-        <v>175</v>
-      </c>
-      <c r="E166" s="14" t="s">
-        <v>271</v>
+        <v>399</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>539</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D167" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>271</v>
+        <v>473</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>701</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D168" t="s">
-        <v>175</v>
-      </c>
-      <c r="E168" s="13" t="s">
-        <v>270</v>
+        <v>539</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>840</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D169" t="s">
-        <v>175</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>257</v>
+        <v>701</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
+        <v>840</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>1026</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B171" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D170" t="s">
-        <v>175</v>
-      </c>
-      <c r="E170" s="13" t="s">
+      <c r="C171" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E171" s="21" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>474</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>475</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>477</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>489</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E175" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>547</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>561</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>562</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>563</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>587</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>676</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>684</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E182" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>758</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1049</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1050</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1059</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1076</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E187" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1077</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E188" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1083</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1088</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1103</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E191" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1104</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E192" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1108</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1112</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1118</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E195" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1119</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E196" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1125</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E197" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1173</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E198" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H157" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
+  <autoFilter ref="A1:H171" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H157">
       <sortCondition ref="A2:A157"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",D1)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://cwe.mitre.org/data/definitions/20.html" xr:uid="{A651DA48-A75D-4DE5-970C-E738AD290736}"/>
@@ -5294,17 +6347,45 @@
     <hyperlink ref="B159" r:id="rId162" display="https://cwe.mitre.org/data/definitions/19.html" xr:uid="{7AD61BA9-614E-4CDA-83E9-FE3E6C36C900}"/>
     <hyperlink ref="B160" r:id="rId163" display="https://cwe.mitre.org/data/definitions/21.html" xr:uid="{6B2BFD3F-BEA3-4404-B576-6F46DBEDE4EB}"/>
     <hyperlink ref="B161" r:id="rId164" display="https://cwe.mitre.org/data/definitions/189.html" xr:uid="{8432A7EE-D1E8-401D-BA99-FF85347C453D}"/>
-    <hyperlink ref="B162" r:id="rId165" display="https://cwe.mitre.org/data/definitions/310.html" xr:uid="{DFDBBD29-04B4-4884-9D07-7F868EB2164D}"/>
-    <hyperlink ref="B163" r:id="rId166" display="https://cwe.mitre.org/data/definitions/355.html" xr:uid="{8D0FCBA3-7A6F-4BBB-AB1F-1C9728D2A896}"/>
-    <hyperlink ref="B164" r:id="rId167" display="https://cwe.mitre.org/data/definitions/391.html" xr:uid="{50D9D4BF-30F3-4824-ADCB-B9DCCEC466C4}"/>
-    <hyperlink ref="B165" r:id="rId168" display="https://cwe.mitre.org/data/definitions/399.html" xr:uid="{70D5C7A8-216B-492E-BD47-B97F7407ED7B}"/>
-    <hyperlink ref="B166" r:id="rId169" display="https://cwe.mitre.org/data/definitions/473.html" xr:uid="{EDCA4E80-80F7-4D79-9FB5-6EA7137CC61D}"/>
-    <hyperlink ref="B167" r:id="rId170" display="https://cwe.mitre.org/data/definitions/539.html" xr:uid="{10ADD3FE-9368-41B3-B9DC-8BD4E988B686}"/>
-    <hyperlink ref="B168" r:id="rId171" display="https://cwe.mitre.org/data/definitions/701.html" xr:uid="{26FBAD09-5EEB-4F7D-A6A5-69E23BD2F94F}"/>
-    <hyperlink ref="B169" r:id="rId172" display="https://cwe.mitre.org/data/definitions/840.html" xr:uid="{AAFAB972-189D-4D69-BF7D-281046E54455}"/>
-    <hyperlink ref="B170" r:id="rId173" display="https://cwe.mitre.org/data/definitions/1026.html" xr:uid="{AFF55490-48F0-4B39-B5FB-532C96FB0FA7}"/>
+    <hyperlink ref="B163" r:id="rId165" display="https://cwe.mitre.org/data/definitions/310.html" xr:uid="{DFDBBD29-04B4-4884-9D07-7F868EB2164D}"/>
+    <hyperlink ref="B164" r:id="rId166" display="https://cwe.mitre.org/data/definitions/355.html" xr:uid="{8D0FCBA3-7A6F-4BBB-AB1F-1C9728D2A896}"/>
+    <hyperlink ref="B165" r:id="rId167" display="https://cwe.mitre.org/data/definitions/391.html" xr:uid="{50D9D4BF-30F3-4824-ADCB-B9DCCEC466C4}"/>
+    <hyperlink ref="B166" r:id="rId168" display="https://cwe.mitre.org/data/definitions/399.html" xr:uid="{70D5C7A8-216B-492E-BD47-B97F7407ED7B}"/>
+    <hyperlink ref="B167" r:id="rId169" display="https://cwe.mitre.org/data/definitions/473.html" xr:uid="{EDCA4E80-80F7-4D79-9FB5-6EA7137CC61D}"/>
+    <hyperlink ref="B168" r:id="rId170" display="https://cwe.mitre.org/data/definitions/539.html" xr:uid="{10ADD3FE-9368-41B3-B9DC-8BD4E988B686}"/>
+    <hyperlink ref="B169" r:id="rId171" display="https://cwe.mitre.org/data/definitions/701.html" xr:uid="{26FBAD09-5EEB-4F7D-A6A5-69E23BD2F94F}"/>
+    <hyperlink ref="B170" r:id="rId172" display="https://cwe.mitre.org/data/definitions/840.html" xr:uid="{AAFAB972-189D-4D69-BF7D-281046E54455}"/>
+    <hyperlink ref="B171" r:id="rId173" display="https://cwe.mitre.org/data/definitions/1026.html" xr:uid="{AFF55490-48F0-4B39-B5FB-532C96FB0FA7}"/>
+    <hyperlink ref="B162" r:id="rId174" display="https://cwe.mitre.org/data/definitions/285.html" xr:uid="{573DE5BD-4C7C-4E60-90F0-3F649B873D1B}"/>
+    <hyperlink ref="B172" r:id="rId175" display="https://cwe.mitre.org/data/definitions/474.html" xr:uid="{053A1F40-0524-4753-9499-49041FE8AD70}"/>
+    <hyperlink ref="B173" r:id="rId176" display="https://cwe.mitre.org/data/definitions/475.html" xr:uid="{49BDAF2F-6FC5-4750-9E5A-1E0B0D1A7A86}"/>
+    <hyperlink ref="B174" r:id="rId177" display="https://cwe.mitre.org/data/definitions/477.html" xr:uid="{57852AAC-7F9A-46A3-AC86-3AE601A3AB56}"/>
+    <hyperlink ref="B175" r:id="rId178" display="https://cwe.mitre.org/data/definitions/489.html" xr:uid="{82249767-8DB8-4F91-B558-6832EBB1D897}"/>
+    <hyperlink ref="B176" r:id="rId179" display="https://cwe.mitre.org/data/definitions/547.html" xr:uid="{43518FDE-1A3E-48BE-B997-1914A1E13D33}"/>
+    <hyperlink ref="B177" r:id="rId180" display="https://cwe.mitre.org/data/definitions/561.html" xr:uid="{CB03E584-C62B-46C2-8FCD-CE5F592A5EF6}"/>
+    <hyperlink ref="B178" r:id="rId181" display="https://cwe.mitre.org/data/definitions/562.html" xr:uid="{4563D695-0ED2-4D50-B915-6CE227E3DAC8}"/>
+    <hyperlink ref="B179" r:id="rId182" display="https://cwe.mitre.org/data/definitions/563.html" xr:uid="{A2107C3F-41A7-41F2-AC4D-74E8EE7EAFE6}"/>
+    <hyperlink ref="B180" r:id="rId183" display="https://cwe.mitre.org/data/definitions/587.html" xr:uid="{902AEFF1-6096-464A-A25A-132631C5099D}"/>
+    <hyperlink ref="B181" r:id="rId184" display="https://cwe.mitre.org/data/definitions/676.html" xr:uid="{C0578181-ECFF-46FC-8F38-30204AE7CD9A}"/>
+    <hyperlink ref="B182" r:id="rId185" display="https://cwe.mitre.org/data/definitions/684.html" xr:uid="{78B33FB4-6338-43C0-8EA8-FE3D07874AB6}"/>
+    <hyperlink ref="B183" r:id="rId186" display="https://cwe.mitre.org/data/definitions/758.html" xr:uid="{A2F2BC55-3339-42EB-AFB1-48F337BE52E2}"/>
+    <hyperlink ref="B184" r:id="rId187" display="https://cwe.mitre.org/data/definitions/1049.html" xr:uid="{940029E5-95E6-42ED-8F2B-E0E2844E20F0}"/>
+    <hyperlink ref="B185" r:id="rId188" display="https://cwe.mitre.org/data/definitions/1050.html" xr:uid="{C791566A-7064-4C96-BD62-FE8EFB225B61}"/>
+    <hyperlink ref="B186" r:id="rId189" display="https://cwe.mitre.org/data/definitions/1059.html" xr:uid="{9FE0DFCE-997A-4E01-A068-E6045AD5CAF4}"/>
+    <hyperlink ref="B187" r:id="rId190" display="https://cwe.mitre.org/data/definitions/1076.html" xr:uid="{B6370883-EC20-48EA-A17B-6F95574C5B89}"/>
+    <hyperlink ref="B188" r:id="rId191" display="https://cwe.mitre.org/data/definitions/1077.html" xr:uid="{7A8F0CA6-EED1-4599-ABE4-9F351456ADDD}"/>
+    <hyperlink ref="B189" r:id="rId192" display="https://cwe.mitre.org/data/definitions/1083.html" xr:uid="{36FDDCCA-BDD7-4D24-9404-D18F1F135F7A}"/>
+    <hyperlink ref="B190" r:id="rId193" display="https://cwe.mitre.org/data/definitions/1088.html" xr:uid="{F971B615-819F-4C68-93BD-46FF0B7E83A1}"/>
+    <hyperlink ref="B191" r:id="rId194" display="https://cwe.mitre.org/data/definitions/1103.html" xr:uid="{6C10A100-461C-4183-83E0-7C4ADF15B624}"/>
+    <hyperlink ref="B192" r:id="rId195" display="https://cwe.mitre.org/data/definitions/1104.html" xr:uid="{4B48A22B-9AFB-49BE-B328-A75490BE512F}"/>
+    <hyperlink ref="B193" r:id="rId196" display="https://cwe.mitre.org/data/definitions/1108.html" xr:uid="{CFF47680-14E1-4F91-B384-9D0A841847B7}"/>
+    <hyperlink ref="B194" r:id="rId197" display="https://cwe.mitre.org/data/definitions/1112.html" xr:uid="{8FFFF60B-33B6-40D7-B300-FE2D4B420BDB}"/>
+    <hyperlink ref="B195" r:id="rId198" display="https://cwe.mitre.org/data/definitions/1118.html" xr:uid="{CAB8A91C-EDAE-47AE-9C5B-CC82E2813EF1}"/>
+    <hyperlink ref="B196" r:id="rId199" display="https://cwe.mitre.org/data/definitions/1119.html" xr:uid="{4EB531D0-771B-4B8C-8771-796C7C93B7F2}"/>
+    <hyperlink ref="B197" r:id="rId200" display="https://cwe.mitre.org/data/definitions/1125.html" xr:uid="{64967907-EF3C-4BCA-9C3C-0D6A6F3050AB}"/>
+    <hyperlink ref="B198" r:id="rId201" display="https://cwe.mitre.org/data/definitions/1173.html" xr:uid="{5706E606-80CB-4C65-97FA-229432C08200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId174"/>
+  <pageSetup orientation="portrait" r:id="rId202"/>
 </worksheet>
 </file>